--- a/documentos/Planner.xlsx
+++ b/documentos/Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cotizadortunalitec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{526068E4-50FF-401E-A5A2-55692806FBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEF2DA3-4618-4FF6-B4F9-55921BC177AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBD1E2C6-BC2C-4C4C-A73D-A878FF44D355}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>Como un…</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>Tiempo total (hrs)</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Cotizaciones correctas de cortinas</t>
+  </si>
+  <si>
+    <t>Cotizar una palillería</t>
+  </si>
+  <si>
+    <t>Ver productos en una orden</t>
+  </si>
+  <si>
+    <t>Ver detalles de producto al crearlo</t>
+  </si>
+  <si>
+    <t>Registro de usuarios</t>
+  </si>
+  <si>
+    <t>Eliminar productos de una orden</t>
+  </si>
+  <si>
+    <t>Ver el formulario de producto en una sola pagina</t>
   </si>
 </sst>
 </file>
@@ -202,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB173C-E595-47EE-AA08-AEA526F9837F}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +639,7 @@
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -632,7 +656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -649,7 +673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -666,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -683,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -700,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -717,7 +741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -734,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -751,7 +775,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -768,7 +792,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
@@ -785,7 +809,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -802,41 +826,47 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="6">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -853,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
@@ -870,172 +900,306 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F25" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E32" s="1">
         <v>8</v>
       </c>
-      <c r="F25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="2" t="s">
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="3">
-        <f>SUM(F3:F25)</f>
-        <v>45</v>
+      <c r="F33" s="3">
+        <f>SUM(F3:F32)</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F26" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F26">
-      <sortCondition descending="1" ref="D2:D26"/>
+  <autoFilter ref="B2:F33" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F33">
+      <sortCondition descending="1" ref="D2:D33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentos/Planner.xlsx
+++ b/documentos/Planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEF2DA3-4618-4FF6-B4F9-55921BC177AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD64835-0C66-4CD7-9189-BF28F094E364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBD1E2C6-BC2C-4C4C-A73D-A878FF44D355}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Como un…</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Visualizar detalles de mi orden</t>
   </si>
   <si>
-    <t>Solicitar un correo con mi orden e imprimir el pdf</t>
-  </si>
-  <si>
     <t>Ver el estado de mi orden en cualquier momento</t>
   </si>
   <si>
@@ -141,15 +138,9 @@
     <t>Tiempo total (hrs)</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Cotizaciones correctas de cortinas</t>
   </si>
   <si>
-    <t>Cotizar una palillería</t>
-  </si>
-  <si>
     <t>Ver productos en una orden</t>
   </si>
   <si>
@@ -163,6 +154,33 @@
   </si>
   <si>
     <t>Ver el formulario de producto en una sola pagina</t>
+  </si>
+  <si>
+    <t>Ver precio dinámico al cotizar</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Visualizar ofertas y pedidos</t>
+  </si>
+  <si>
+    <t>Descuento fijo a usuario</t>
+  </si>
+  <si>
+    <t>Correo cuando se manda a producción</t>
+  </si>
+  <si>
+    <t>CRUD mecanismos</t>
+  </si>
+  <si>
+    <t>CRUD tubos</t>
+  </si>
+  <si>
+    <t>CRUD paneles</t>
+  </si>
+  <si>
+    <t>Opciones de direccion de envio</t>
   </si>
 </sst>
 </file>
@@ -226,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB173C-E595-47EE-AA08-AEA526F9837F}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +657,7 @@
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -673,7 +691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -690,12 +708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <v>5</v>
@@ -707,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -724,12 +742,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
@@ -741,7 +759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -758,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -775,7 +793,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -792,7 +810,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
@@ -809,12 +827,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -826,10 +844,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -846,10 +861,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
@@ -866,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -883,12 +895,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -901,35 +913,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
@@ -941,34 +947,28 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -981,14 +981,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1001,205 +998,340 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
         <v>12</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="E38" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="3">
-        <f>SUM(F3:F32)</f>
-        <v>72</v>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3">
+        <f>SUM(F3:F38)</f>
+        <v>79.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F33" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F33">
-      <sortCondition descending="1" ref="D2:D33"/>
+  <autoFilter ref="B2:F39" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F39">
+      <sortCondition descending="1" ref="D2:D39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentos/Planner.xlsx
+++ b/documentos/Planner.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Uni\Uni\Decimo semestre\Proyecto integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\cotizadortunalitec\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEF2DA3-4618-4FF6-B4F9-55921BC177AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8E436-F17C-47C7-9DB9-863A00615980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBD1E2C6-BC2C-4C4C-A73D-A878FF44D355}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BBD1E2C6-BC2C-4C4C-A73D-A878FF44D355}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Como un…</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Visualizar detalles de mi orden</t>
   </si>
   <si>
-    <t>Solicitar un correo con mi orden e imprimir el pdf</t>
-  </si>
-  <si>
     <t>Ver el estado de mi orden en cualquier momento</t>
   </si>
   <si>
@@ -141,15 +138,9 @@
     <t>Tiempo total (hrs)</t>
   </si>
   <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
     <t>Cotizaciones correctas de cortinas</t>
   </si>
   <si>
-    <t>Cotizar una palillería</t>
-  </si>
-  <si>
     <t>Ver productos en una orden</t>
   </si>
   <si>
@@ -163,6 +154,33 @@
   </si>
   <si>
     <t>Ver el formulario de producto en una sola pagina</t>
+  </si>
+  <si>
+    <t>Ver precio dinámico al cotizar</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Visualizar ofertas y pedidos</t>
+  </si>
+  <si>
+    <t>Descuento fijo a usuario</t>
+  </si>
+  <si>
+    <t>Correo cuando se manda a producción</t>
+  </si>
+  <si>
+    <t>CRUD mecanismos</t>
+  </si>
+  <si>
+    <t>CRUD tubos</t>
+  </si>
+  <si>
+    <t>CRUD paneles</t>
+  </si>
+  <si>
+    <t>Opciones de direccion de envio</t>
   </si>
 </sst>
 </file>
@@ -201,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,7 +244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +320,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyBorder="1"/>
@@ -307,6 +331,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -624,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DFB173C-E595-47EE-AA08-AEA526F9837F}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +664,7 @@
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,16 +672,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -673,7 +698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -690,12 +715,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <v>5</v>
@@ -707,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -724,12 +749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
@@ -741,7 +766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -758,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -775,7 +800,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
@@ -792,7 +817,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
@@ -809,12 +834,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -826,10 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -846,10 +868,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
@@ -866,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -883,12 +902,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -901,35 +920,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
@@ -941,34 +954,28 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" s="6">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -981,14 +988,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1001,205 +1005,340 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
         <v>12</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>6</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>6</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="E38" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="3">
-        <f>SUM(F3:F32)</f>
-        <v>72</v>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="3">
+        <f>SUM(F3:F38)</f>
+        <v>79.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F33" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F33">
-      <sortCondition descending="1" ref="D2:D33"/>
+  <autoFilter ref="B2:F39" xr:uid="{4BCE649D-6229-42BA-B504-D31134B72613}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F39">
+      <sortCondition descending="1" ref="D2:D39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
